--- a/02-randomizer/giacr-files/2-edited-files/3-excel/FHL 1510056 Cum First GEPC 336-348 Hailey Braedon (data).xlsx
+++ b/02-randomizer/giacr-files/2-edited-files/3-excel/FHL 1510056 Cum First GEPC 336-348 Hailey Braedon (data).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedon\Documents\x\gsa\02-randomizer\giacr-files\2-edited-files\3-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{973FF5F3-B5E8-4BB3-B0F5-57CD023D09A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4DED27AD-7835-4D66-B3DA-CB3585545C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="603">
   <si>
     <t>Wilhelm Kern</t>
   </si>
@@ -466,7 +466,10 @@
     <t>Johanne Juliane Wilhelmine Tuemler</t>
   </si>
   <si>
-    <t>Hamburg 16 April 1816</t>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>16 April 1816</t>
   </si>
   <si>
     <t>8 Dec 1893</t>
@@ -676,7 +679,7 @@
     <t>Anna Janner</t>
   </si>
   <si>
-    <t>Bayern 1826</t>
+    <t>Bayern</t>
   </si>
   <si>
     <t>4 April 1894</t>
@@ -895,7 +898,10 @@
     <t>Heinrich Baltzer</t>
   </si>
   <si>
-    <t>Hessen 9 Nov 1830</t>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>9 Nov 1830</t>
   </si>
   <si>
     <t>16 Oct 1894</t>
@@ -1189,7 +1195,7 @@
     <t>Georg Hoffmann</t>
   </si>
   <si>
-    <t>Bayern 8 Feb 1841</t>
+    <t>8 Feb 1841</t>
   </si>
   <si>
     <t>31 Oct 1895</t>
@@ -2669,7 +2675,7 @@
   <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3538,96 +3544,99 @@
         <v>148</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="1" t="e">
+        <v>152</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="1" t="e">
         <f>- - Deicke</f>
         <v>#NAME?</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>152</v>
+      <c r="N43" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>7</v>
@@ -3636,30 +3645,30 @@
         <v>8</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>7</v>
@@ -3668,39 +3677,39 @@
         <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>7</v>
@@ -3709,39 +3718,39 @@
         <v>8</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>7</v>
@@ -3750,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>10</v>
@@ -3760,18 +3769,18 @@
         <v>#NAME?</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E55" s="1">
         <v>1854</v>
@@ -3780,10 +3789,10 @@
         <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>7</v>
@@ -3792,39 +3801,39 @@
         <v>8</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>7</v>
@@ -3833,7 +3842,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>10</v>
@@ -3843,12 +3852,12 @@
         <v>#NAME?</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -3857,16 +3866,16 @@
         <v>108</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>7</v>
@@ -3875,80 +3884,80 @@
         <v>8</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>7</v>
@@ -3957,78 +3966,81 @@
         <v>8</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>219</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1826</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="1" t="e">
+        <v>222</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="1" t="e">
         <f>- - Bantley</f>
         <v>#NAME?</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>203</v>
+      <c r="N65" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>7</v>
@@ -4037,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>10</v>
@@ -4047,30 +4059,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>7</v>
@@ -4079,33 +4091,33 @@
         <v>8</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>7</v>
@@ -4114,39 +4126,39 @@
         <v>8</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>7</v>
@@ -4155,80 +4167,80 @@
         <v>8</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N75" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>7</v>
@@ -4237,36 +4249,36 @@
         <v>8</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>7</v>
@@ -4275,7 +4287,7 @@
         <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>10</v>
@@ -4285,30 +4297,30 @@
         <v>#NAME?</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>7</v>
@@ -4317,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>10</v>
@@ -4327,30 +4339,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>7</v>
@@ -4359,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>10</v>
@@ -4369,30 +4381,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>7</v>
@@ -4401,77 +4413,80 @@
         <v>8</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>294</v>
+        <v>8</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>7</v>
@@ -4480,27 +4495,27 @@
         <v>8</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E91" s="1">
         <v>1838</v>
@@ -4509,10 +4524,10 @@
         <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>7</v>
@@ -4521,80 +4536,80 @@
         <v>8</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N93" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>7</v>
@@ -4603,7 +4618,7 @@
         <v>8</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>10</v>
@@ -4613,30 +4628,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>7</v>
@@ -4648,33 +4663,33 @@
         <v>10</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>7</v>
@@ -4683,7 +4698,7 @@
         <v>8</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>10</v>
@@ -4693,30 +4708,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>7</v>
@@ -4725,77 +4740,77 @@
         <v>8</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N103" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>7</v>
@@ -4804,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>10</v>
@@ -4814,30 +4829,30 @@
         <v>#NAME?</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>7</v>
@@ -4846,39 +4861,39 @@
         <v>8</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>7</v>
@@ -4887,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>10</v>
@@ -4897,30 +4912,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
@@ -4929,33 +4944,33 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
@@ -4964,109 +4979,112 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>389</v>
+        <v>219</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>393</v>
+        <v>10</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>7</v>
@@ -5075,39 +5093,39 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>7</v>
@@ -5116,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>10</v>
@@ -5126,74 +5144,74 @@
         <v>#NAME?</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>7</v>
@@ -5202,33 +5220,33 @@
         <v>8</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>7</v>
@@ -5237,39 +5255,39 @@
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>7</v>
@@ -5278,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>10</v>
@@ -5288,112 +5306,112 @@
         <v>#NAME?</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N131" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="L133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>7</v>
@@ -5402,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>10</v>
@@ -5412,30 +5430,30 @@
         <v>#NAME?</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="H137" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>7</v>
@@ -5444,33 +5462,33 @@
         <v>8</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>7</v>
@@ -5479,39 +5497,39 @@
         <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>7</v>
@@ -5520,21 +5538,21 @@
         <v>8</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1</v>
@@ -5543,54 +5561,54 @@
         <v>108</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>7</v>
@@ -5599,39 +5617,39 @@
         <v>8</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>7</v>
@@ -5640,42 +5658,42 @@
         <v>8</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>7</v>
@@ -5684,39 +5702,39 @@
         <v>8</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>7</v>
@@ -5725,39 +5743,39 @@
         <v>8</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>7</v>
@@ -5766,39 +5784,39 @@
         <v>8</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>7</v>
@@ -5807,39 +5825,39 @@
         <v>8</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>7</v>
@@ -5848,39 +5866,39 @@
         <v>8</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>7</v>
@@ -5889,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>10</v>
@@ -5899,33 +5917,33 @@
         <v>#NAME?</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>7</v>
@@ -5934,39 +5952,39 @@
         <v>8</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>7</v>
@@ -5975,15 +5993,15 @@
         <v>8</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1</v>
@@ -5992,16 +6010,16 @@
         <v>108</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>7</v>
@@ -6010,7 +6028,7 @@
         <v>8</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>10</v>
@@ -6020,18 +6038,18 @@
         <v>#NAME?</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E167" s="1">
         <v>1822</v>
@@ -6040,13 +6058,13 @@
         <v>4</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>7</v>
@@ -6055,36 +6073,36 @@
         <v>8</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>7</v>
@@ -6093,21 +6111,21 @@
         <v>8</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E171" s="1">
         <v>1818</v>
@@ -6116,13 +6134,13 @@
         <v>4</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>7</v>
@@ -6131,56 +6149,56 @@
         <v>8</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="N173" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1</v>
@@ -6189,16 +6207,16 @@
         <v>65</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>7</v>
@@ -6207,39 +6225,39 @@
         <v>8</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>7</v>
@@ -6248,80 +6266,80 @@
         <v>8</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="N179" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M179" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>7</v>
@@ -6330,13 +6348,14 @@
         <v>8</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>